--- a/biology/Botanique/Cynodon_nlemfuensis/Cynodon_nlemfuensis.xlsx
+++ b/biology/Botanique/Cynodon_nlemfuensis/Cynodon_nlemfuensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynodon nlemfuensis, l'herbe des Bermudes africaine, est une espèce de graminée du genre Cynodon, de la famille des Poaceae[1],[2].
-C'est une espèce stolonifère, mais non rhizomateuse[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynodon nlemfuensis, l'herbe des Bermudes africaine, est une espèce de graminée du genre Cynodon, de la famille des Poaceae,.
+C'est une espèce stolonifère, mais non rhizomateuse.
 L’aire de répartition d'origine de Cynodon nlemfuensis  s’étend de l’Éthiopie au sud de l’Afrique tropicale. C’est une plante vivace qui pousse principalement dans le biome tropical saisonnier et sec.
-Il est très utilisé utilisé comme fourrage dans de nombreuses contrées telles que Hawaï, le Texas, la Floride, le Mexique, l'Amérique centrale, les Caraïbes, les Galápagos, l'Amérique du Sud, l'Afrique de l’Ouest et australe, l'Arabie saoudite, Taïwan, les Philippines et l'Australie[4].
-Il est de plus utilisé pour l'environnement. C'est aussi un un poison et un médicament[5].
+Il est très utilisé utilisé comme fourrage dans de nombreuses contrées telles que Hawaï, le Texas, la Floride, le Mexique, l'Amérique centrale, les Caraïbes, les Galápagos, l'Amérique du Sud, l'Afrique de l’Ouest et australe, l'Arabie saoudite, Taïwan, les Philippines et l'Australie.
+Il est de plus utilisé pour l'environnement. C'est aussi un un poison et un médicament.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les variétés suivantes sont acceptées :
 Cynodon nlemfuensis var. nlemfuensis
